--- a/Surid.xlsx
+++ b/Surid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
   <si>
     <t>Romanian</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>girl</t>
-  </si>
-  <si>
-    <t>gită</t>
   </si>
   <si>
     <t>tinerică</t>
@@ -81,19 +78,10 @@
     <t>posłuszną</t>
   </si>
   <si>
-    <t>молоrică</t>
-  </si>
-  <si>
-    <t>hare</t>
-  </si>
-  <si>
     <t>tă</t>
   </si>
   <si>
     <t>biu</t>
-  </si>
-  <si>
-    <t>posłinte</t>
   </si>
   <si>
     <t>rușine</t>
@@ -264,9 +252,6 @@
     <t>rachie</t>
   </si>
   <si>
-    <t>їi</t>
-  </si>
-  <si>
     <t>їй</t>
   </si>
   <si>
@@ -288,16 +273,10 @@
     <t>so</t>
   </si>
   <si>
-    <t>aso</t>
-  </si>
-  <si>
     <t>did</t>
   </si>
   <si>
     <t>said</t>
-  </si>
-  <si>
-    <t>sais</t>
   </si>
   <si>
     <t>parent</t>
@@ -309,9 +288,6 @@
     <t>but</t>
   </si>
   <si>
-    <t>bur</t>
-  </si>
-  <si>
     <t>mam</t>
   </si>
   <si>
@@ -321,22 +297,13 @@
     <t>săturant</t>
   </si>
   <si>
-    <t>rușыдно</t>
-  </si>
-  <si>
     <t>stać</t>
   </si>
   <si>
     <t>at</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
     <t>kąt</t>
-  </si>
-  <si>
-    <t>kąț</t>
   </si>
   <si>
     <t>ze</t>
@@ -345,13 +312,7 @@
     <t>парта</t>
   </si>
   <si>
-    <t>martă</t>
-  </si>
-  <si>
     <t>dziś</t>
-  </si>
-  <si>
-    <t>aziś</t>
   </si>
   <si>
     <t>dod</t>
@@ -372,13 +333,115 @@
     <t>the</t>
   </si>
   <si>
-    <t>thea</t>
-  </si>
-  <si>
     <t>вродлива</t>
   </si>
   <si>
-    <t>вродoasă</t>
+    <t>Surance</t>
+  </si>
+  <si>
+    <t>giorl</t>
+  </si>
+  <si>
+    <t>giotă</t>
+  </si>
+  <si>
+    <t>hăv</t>
+  </si>
+  <si>
+    <t>trăv</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>poslușnou</t>
+  </si>
+  <si>
+    <t>poslinte</t>
+  </si>
+  <si>
+    <t>molodaya</t>
+  </si>
+  <si>
+    <t>tinedaya</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>yiy</t>
+  </si>
+  <si>
+    <t>stîdno</t>
+  </si>
+  <si>
+    <t>sou</t>
+  </si>
+  <si>
+    <t>seid</t>
+  </si>
+  <si>
+    <t>părent</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>stac</t>
+  </si>
+  <si>
+    <t>ăt</t>
+  </si>
+  <si>
+    <t>parta</t>
+  </si>
+  <si>
+    <t>dziș</t>
+  </si>
+  <si>
+    <t>vrodlîva</t>
+  </si>
+  <si>
+    <t>їiy</t>
+  </si>
+  <si>
+    <t>rușîdnо</t>
+  </si>
+  <si>
+    <t>asou</t>
+  </si>
+  <si>
+    <t>seis</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>lăt</t>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>colt</t>
+  </si>
+  <si>
+    <t>dze</t>
+  </si>
+  <si>
+    <t>masta</t>
+  </si>
+  <si>
+    <t>aziș</t>
+  </si>
+  <si>
+    <t>zea</t>
+  </si>
+  <si>
+    <t>vrodoasă</t>
   </si>
 </sst>
 </file>
@@ -439,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -488,19 +551,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
@@ -529,22 +579,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -554,22 +593,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,17 +614,17 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,55 +935,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -959,16 +996,18 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -977,702 +1016,758 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>87</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>89</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>91</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>92</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>94</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>98</v>
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>99</v>
+        <v>31</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>103</v>
+        <v>33</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>107</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>108</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>117</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="7"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1684,7 +1779,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1696,7 +1791,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1708,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1720,7 +1815,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1732,7 +1827,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1744,7 +1839,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1756,7 +1851,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1768,7 +1863,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1780,7 +1875,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1792,7 +1887,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1804,7 +1899,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1816,7 +1911,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1828,7 +1923,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1840,7 +1935,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1852,7 +1947,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1864,7 +1959,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1876,7 +1971,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>

--- a/Surid.xlsx
+++ b/Surid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
   <si>
     <t>Romanian</t>
   </si>
@@ -309,9 +309,6 @@
     <t>ze</t>
   </si>
   <si>
-    <t>парта</t>
-  </si>
-  <si>
     <t>dziś</t>
   </si>
   <si>
@@ -375,13 +372,7 @@
     <t>yiy</t>
   </si>
   <si>
-    <t>stîdno</t>
-  </si>
-  <si>
     <t>sou</t>
-  </si>
-  <si>
-    <t>seid</t>
   </si>
   <si>
     <t>părent</t>
@@ -396,9 +387,6 @@
     <t>ăt</t>
   </si>
   <si>
-    <t>parta</t>
-  </si>
-  <si>
     <t>dziș</t>
   </si>
   <si>
@@ -408,13 +396,7 @@
     <t>їiy</t>
   </si>
   <si>
-    <t>rușîdnо</t>
-  </si>
-  <si>
     <t>asou</t>
-  </si>
-  <si>
-    <t>seis</t>
   </si>
   <si>
     <t>bar</t>
@@ -432,9 +414,6 @@
     <t>dze</t>
   </si>
   <si>
-    <t>masta</t>
-  </si>
-  <si>
     <t>aziș</t>
   </si>
   <si>
@@ -442,6 +421,33 @@
   </si>
   <si>
     <t>vrodoasă</t>
+  </si>
+  <si>
+    <t>парти</t>
+  </si>
+  <si>
+    <t>partâ</t>
+  </si>
+  <si>
+    <t>mastâ</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>ses</t>
+  </si>
+  <si>
+    <t>stîdna</t>
+  </si>
+  <si>
+    <t>rușîdna</t>
+  </si>
+  <si>
+    <t>ślub</t>
+  </si>
+  <si>
+    <t>это</t>
   </si>
 </sst>
 </file>
@@ -935,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -980,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>6</v>
@@ -1020,10 +1026,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
@@ -1040,10 +1046,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
@@ -1060,10 +1066,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
@@ -1080,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -1100,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -1120,10 +1126,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -1140,10 +1146,10 @@
         <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
@@ -1160,10 +1166,10 @@
         <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
@@ -1240,10 +1246,10 @@
         <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
@@ -1263,7 +1269,7 @@
         <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
@@ -1280,10 +1286,10 @@
         <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
@@ -1300,7 +1306,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>88</v>
@@ -1320,10 +1326,10 @@
         <v>89</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
@@ -1380,10 +1386,10 @@
         <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
@@ -1400,10 +1406,10 @@
         <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
@@ -1420,10 +1426,10 @@
         <v>95</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
@@ -1443,7 +1449,7 @@
         <v>96</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
@@ -1457,13 +1463,13 @@
         <v>36</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
@@ -1477,13 +1483,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1497,13 +1503,13 @@
         <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1516,13 +1522,13 @@
         <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1535,13 +1541,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1554,13 +1560,13 @@
         <v>41</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1572,7 +1578,9 @@
       <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="6"/>
@@ -1585,7 +1593,9 @@
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="6"/>

--- a/Surid.xlsx
+++ b/Surid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="221">
   <si>
     <t>Romanian</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>nunta</t>
-  </si>
-  <si>
-    <t>numa</t>
   </si>
   <si>
     <t>muzică</t>
@@ -448,6 +445,240 @@
   </si>
   <si>
     <t>это</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>ніхто</t>
+  </si>
+  <si>
+    <t>слухати</t>
+  </si>
+  <si>
+    <t>tyle</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>grać</t>
+  </si>
+  <si>
+    <t>хочаб</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>życie</t>
+  </si>
+  <si>
+    <t>mówić</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>би</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>интересуюсь</t>
+  </si>
+  <si>
+    <t>встороне</t>
+  </si>
+  <si>
+    <t>kiedy</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>dancing</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>șlub</t>
+  </si>
+  <si>
+    <t>mor</t>
+  </si>
+  <si>
+    <t>miuzic</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>говорити</t>
+  </si>
+  <si>
+    <t>nihto</t>
+  </si>
+  <si>
+    <t>hovorytî</t>
+  </si>
+  <si>
+    <t>tâle</t>
+  </si>
+  <si>
+    <t>sluhatâ</t>
+  </si>
+  <si>
+    <t>mornin</t>
+  </si>
+  <si>
+    <t>grac</t>
+  </si>
+  <si>
+    <t>hocab</t>
+  </si>
+  <si>
+    <t>taim</t>
+  </si>
+  <si>
+    <t>muvic</t>
+  </si>
+  <si>
+    <t>țo</t>
+  </si>
+  <si>
+    <t>bâ</t>
+  </si>
+  <si>
+    <t>nou</t>
+  </si>
+  <si>
+    <t>intieriesuiusi</t>
+  </si>
+  <si>
+    <t>vstoronie</t>
+  </si>
+  <si>
+    <t>ciedâ</t>
+  </si>
+  <si>
+    <t>jâce</t>
+  </si>
+  <si>
+    <t>danțin</t>
+  </si>
+  <si>
+    <t>șlunta</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>muzic</t>
+  </si>
+  <si>
+    <t>tolți</t>
+  </si>
+  <si>
+    <t>hovorbesc</t>
+  </si>
+  <si>
+    <t>nihteni</t>
+  </si>
+  <si>
+    <t>asluhtă</t>
+  </si>
+  <si>
+    <t>atâle</t>
+  </si>
+  <si>
+    <t>починаю</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>после</t>
+  </si>
+  <si>
+    <t>klatka</t>
+  </si>
+  <si>
+    <t>вкус</t>
+  </si>
+  <si>
+    <t>немного</t>
+  </si>
+  <si>
+    <t>wieczorem</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>pocînayu</t>
+  </si>
+  <si>
+    <t>laic</t>
+  </si>
+  <si>
+    <t>poslie</t>
+  </si>
+  <si>
+    <t>clatca</t>
+  </si>
+  <si>
+    <t>vcus</t>
+  </si>
+  <si>
+    <t>niemnoga</t>
+  </si>
+  <si>
+    <t>wiecorăm</t>
+  </si>
+  <si>
+    <t>wain</t>
+  </si>
+  <si>
+    <t>worcit</t>
+  </si>
+  <si>
+    <t>dimorneață</t>
+  </si>
+  <si>
+    <t>groc</t>
+  </si>
+  <si>
+    <t>măcab</t>
+  </si>
+  <si>
+    <t>dataim</t>
+  </si>
+  <si>
+    <t>jață</t>
+  </si>
+  <si>
+    <t>ăto</t>
+  </si>
+  <si>
+    <t>ăsto</t>
   </si>
 </sst>
 </file>
@@ -941,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -986,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>6</v>
@@ -1026,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="5"/>
@@ -1046,10 +1277,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
@@ -1066,10 +1297,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
@@ -1086,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -1106,7 +1337,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>21</v>
@@ -1126,10 +1357,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -1140,16 +1371,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
@@ -1163,13 +1394,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
@@ -1183,10 +1414,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -1203,7 +1434,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
@@ -1223,13 +1454,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
@@ -1243,13 +1474,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
@@ -1263,13 +1494,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
@@ -1283,13 +1514,13 @@
         <v>28</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
@@ -1303,13 +1534,13 @@
         <v>29</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
@@ -1323,13 +1554,13 @@
         <v>30</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
@@ -1340,16 +1571,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
@@ -1363,13 +1594,13 @@
         <v>31</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
@@ -1383,13 +1614,13 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
@@ -1403,13 +1634,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
@@ -1423,13 +1654,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
@@ -1443,13 +1674,13 @@
         <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
@@ -1463,13 +1694,13 @@
         <v>36</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
@@ -1483,13 +1714,13 @@
         <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1503,13 +1734,13 @@
         <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1522,13 +1753,13 @@
         <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1541,13 +1772,13 @@
         <v>40</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1560,13 +1791,13 @@
         <v>41</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1579,10 +1810,14 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
@@ -1591,13 +1826,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
@@ -1606,11 +1845,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
@@ -1619,11 +1864,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
@@ -1632,11 +1883,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
@@ -1645,11 +1902,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1657,11 +1920,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1669,11 +1938,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1681,11 +1956,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1693,11 +1974,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1705,11 +1992,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1717,11 +2010,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,11 +2028,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1741,11 +2046,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1753,11 +2064,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,10 +2082,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="6"/>
     </row>
@@ -1777,10 +2098,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
@@ -1789,10 +2114,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
@@ -1801,10 +2130,14 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
@@ -1813,10 +2146,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
@@ -1825,10 +2162,14 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
@@ -1837,10 +2178,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
@@ -1849,10 +2194,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
@@ -1861,10 +2210,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
@@ -1873,10 +2226,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
@@ -1885,10 +2242,14 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
@@ -1897,10 +2258,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
@@ -1909,10 +2274,14 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
@@ -1921,10 +2290,14 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
@@ -1933,10 +2306,14 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
@@ -1945,10 +2322,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
@@ -1957,10 +2338,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
@@ -1969,10 +2354,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
@@ -1981,10 +2370,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>

--- a/Surid.xlsx
+++ b/Surid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="238">
   <si>
     <t>Romanian</t>
   </si>
@@ -639,9 +639,6 @@
     <t>laic</t>
   </si>
   <si>
-    <t>poslie</t>
-  </si>
-  <si>
     <t>clatca</t>
   </si>
   <si>
@@ -679,6 +676,60 @@
   </si>
   <si>
     <t>ăsto</t>
+  </si>
+  <si>
+    <t>spuvic</t>
+  </si>
+  <si>
+    <t>țe</t>
+  </si>
+  <si>
+    <t>interesuză</t>
+  </si>
+  <si>
+    <t>partoronie</t>
+  </si>
+  <si>
+    <t>cândâ</t>
+  </si>
+  <si>
+    <t>soufletu</t>
+  </si>
+  <si>
+    <t>danțează</t>
+  </si>
+  <si>
+    <t>poceput</t>
+  </si>
+  <si>
+    <t>plaică</t>
+  </si>
+  <si>
+    <t>posliă</t>
+  </si>
+  <si>
+    <t>duposliă</t>
+  </si>
+  <si>
+    <t>colitca</t>
+  </si>
+  <si>
+    <t>vgust</t>
+  </si>
+  <si>
+    <t>nieacă</t>
+  </si>
+  <si>
+    <t>disorăm</t>
+  </si>
+  <si>
+    <t>wachin</t>
+  </si>
+  <si>
+    <t>bâr</t>
+  </si>
+  <si>
+    <t>stauc</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1671,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
@@ -1832,10 +1883,10 @@
         <v>142</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -1983,7 +2034,7 @@
         <v>150</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -2001,7 +2052,7 @@
         <v>176</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F42" s="6"/>
     </row>
@@ -2019,7 +2070,7 @@
         <v>177</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F43" s="6"/>
     </row>
@@ -2037,7 +2088,7 @@
         <v>178</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -2055,7 +2106,7 @@
         <v>179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -2073,7 +2124,7 @@
         <v>187</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F46" s="6"/>
     </row>
@@ -2090,7 +2141,9 @@
       <c r="D47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2106,7 +2159,9 @@
       <c r="D48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,7 +2177,9 @@
       <c r="D49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,7 +2195,9 @@
       <c r="D50" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,7 +2213,9 @@
       <c r="D51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2170,7 +2231,9 @@
       <c r="D52" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,7 +2249,9 @@
       <c r="D53" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,7 +2267,9 @@
       <c r="D54" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2285,9 @@
       <c r="D55" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,7 +2303,9 @@
       <c r="D56" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2250,7 +2321,9 @@
       <c r="D57" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2266,7 +2339,9 @@
       <c r="D58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,7 +2357,9 @@
       <c r="D59" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,9 +2373,11 @@
         <v>199</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2312,9 +2391,11 @@
         <v>200</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,9 +2409,11 @@
         <v>201</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,9 +2427,11 @@
         <v>202</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,9 +2445,11 @@
         <v>203</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,9 +2463,11 @@
         <v>204</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
